--- a/testing/testSuite/src/main/resources/TestInsurancePolicyStandardisation/testDayOnDayProcessing/SeedData-Day2.xlsx
+++ b/testing/testSuite/src/main/resources/TestInsurancePolicyStandardisation/testDayOnDayProcessing/SeedData-Day2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70E78F-F260-40D0-8CD2-39B20B3A2045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="0" windowWidth="20025" windowHeight="10320" tabRatio="725" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="725" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feed" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,25 @@
     <sheet name="insurance_policy_tax_jurisd" sheetId="14" r:id="rId8"/>
     <sheet name="fr_general_codes" sheetId="18" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="262">
   <si>
     <t>N</t>
   </si>
@@ -290,54 +299,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>DIRECT</t>
   </si>
   <si>
@@ -386,108 +347,9 @@
     <t>HH</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>CEDED</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -696,9 +558,6 @@
   </si>
   <si>
     <t>Parent LE109</t>
-  </si>
-  <si>
-    <t>110</t>
   </si>
   <si>
     <t>LE110</t>
@@ -968,7 +827,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,9 +890,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1061,6 +918,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1375,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1385,111 +1244,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="34.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>42915</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>43163.654861111114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="A5" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="12">
         <v>42915</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="E5" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="13">
         <v>43163.655555555553</v>
       </c>
     </row>
@@ -1500,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1510,150 +1369,150 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="34.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="10">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1663,17 +1522,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5:I40"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -1686,39 +1545,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1750,7 +1609,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1782,20 +1641,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>28</v>
+      <c r="A4" s="15">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -1809,25 +1668,25 @@
       <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>282</v>
+      <c r="J4" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
+      <c r="A5" s="15">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1841,25 +1700,25 @@
       <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>282</v>
+      <c r="J5" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>30</v>
+      <c r="A6" s="15">
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1873,25 +1732,25 @@
       <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>282</v>
+      <c r="J6" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
+      <c r="A7" s="15">
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1905,25 +1764,25 @@
       <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>282</v>
+      <c r="J7" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
+      <c r="A8" s="15">
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1937,25 +1796,25 @@
       <c r="I8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>282</v>
+      <c r="J8" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>84</v>
+      <c r="A9" s="15">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1969,25 +1828,25 @@
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>282</v>
+      <c r="J9" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>85</v>
+      <c r="A10" s="15">
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2001,25 +1860,25 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>282</v>
+      <c r="J10" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>86</v>
+      <c r="A11" s="15">
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2033,25 +1892,25 @@
       <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>282</v>
+      <c r="J11" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
+      <c r="A12" s="15">
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2065,25 +1924,25 @@
       <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>282</v>
+      <c r="J12" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>87</v>
+      <c r="A13" s="15">
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2097,25 +1956,25 @@
       <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>282</v>
+      <c r="J13" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>88</v>
+      <c r="A14" s="15">
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -2129,25 +1988,25 @@
       <c r="I14" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>282</v>
+      <c r="J14" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>89</v>
+      <c r="A15" s="15">
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -2161,25 +2020,25 @@
       <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>282</v>
+      <c r="J15" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>90</v>
+      <c r="A16" s="15">
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -2193,25 +2052,25 @@
       <c r="I16" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>282</v>
+      <c r="J16" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>91</v>
+      <c r="A17" s="15">
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2225,25 +2084,25 @@
       <c r="I17" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>282</v>
+      <c r="J17" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>92</v>
+      <c r="A18" s="15">
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -2257,25 +2116,25 @@
       <c r="I18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>282</v>
+      <c r="J18" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="16">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
         <v>129</v>
       </c>
-      <c r="B19" t="s">
-        <v>178</v>
-      </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -2289,25 +2148,25 @@
       <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>282</v>
+      <c r="J19" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="16">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
@@ -2321,25 +2180,25 @@
       <c r="I20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>282</v>
+      <c r="J20" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="16">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
         <v>131</v>
       </c>
-      <c r="B21" t="s">
-        <v>180</v>
-      </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
@@ -2353,25 +2212,25 @@
       <c r="I21" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>282</v>
+      <c r="J21" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="16">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" t="s">
-        <v>181</v>
-      </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2385,25 +2244,25 @@
       <c r="I22" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>282</v>
+      <c r="J22" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="16">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
         <v>133</v>
       </c>
-      <c r="B23" t="s">
-        <v>182</v>
-      </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -2417,25 +2276,25 @@
       <c r="I23" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>282</v>
+      <c r="J23" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="16">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
         <v>134</v>
       </c>
-      <c r="B24" t="s">
-        <v>183</v>
-      </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2449,25 +2308,25 @@
       <c r="I24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>282</v>
+      <c r="J24" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="16">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>135</v>
       </c>
-      <c r="B25" t="s">
-        <v>184</v>
-      </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
@@ -2481,25 +2340,25 @@
       <c r="I25" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>282</v>
+      <c r="J25" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="16">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
         <v>136</v>
       </c>
-      <c r="B26" t="s">
-        <v>185</v>
-      </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
@@ -2513,25 +2372,25 @@
       <c r="I26" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>282</v>
+      <c r="J26" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="16">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
-        <v>186</v>
-      </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
@@ -2545,25 +2404,25 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>282</v>
+      <c r="J27" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>223</v>
+      <c r="A28" s="16">
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
@@ -2577,25 +2436,25 @@
       <c r="I28" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>282</v>
+      <c r="J28" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="16">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
         <v>138</v>
       </c>
-      <c r="B29" t="s">
-        <v>187</v>
-      </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
@@ -2609,25 +2468,25 @@
       <c r="I29" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>282</v>
+      <c r="J29" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="16">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
         <v>139</v>
       </c>
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
@@ -2641,25 +2500,25 @@
       <c r="I30" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>282</v>
+      <c r="J30" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="16">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
         <v>140</v>
       </c>
-      <c r="B31" t="s">
-        <v>189</v>
-      </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
@@ -2673,25 +2532,25 @@
       <c r="I31" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>282</v>
+      <c r="J31" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="16">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
         <v>141</v>
       </c>
-      <c r="B32" t="s">
-        <v>190</v>
-      </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
@@ -2705,25 +2564,25 @@
       <c r="I32" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>282</v>
+      <c r="J32" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="16">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
-        <v>191</v>
-      </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
@@ -2737,25 +2596,25 @@
       <c r="I33" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>282</v>
+      <c r="J33" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="16">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
         <v>143</v>
       </c>
-      <c r="B34" t="s">
-        <v>192</v>
-      </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
@@ -2769,25 +2628,25 @@
       <c r="I34" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>282</v>
+      <c r="J34" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="16">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
         <v>144</v>
       </c>
-      <c r="B35" t="s">
-        <v>193</v>
-      </c>
       <c r="C35" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -2801,25 +2660,25 @@
       <c r="I35" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>282</v>
+      <c r="J35" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="16">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
         <v>145</v>
       </c>
-      <c r="B36" t="s">
-        <v>194</v>
-      </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
         <v>23</v>
@@ -2833,25 +2692,25 @@
       <c r="I36" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>282</v>
+      <c r="J36" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="16">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
         <v>146</v>
       </c>
-      <c r="B37" t="s">
-        <v>195</v>
-      </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
         <v>23</v>
@@ -2865,25 +2724,25 @@
       <c r="I37" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>282</v>
+      <c r="J37" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="16">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
         <v>147</v>
       </c>
-      <c r="B38" t="s">
-        <v>196</v>
-      </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
@@ -2897,25 +2756,25 @@
       <c r="I38" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>282</v>
+      <c r="J38" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>151</v>
+      <c r="A39" s="16">
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
         <v>23</v>
@@ -2929,25 +2788,25 @@
       <c r="I39" t="s">
         <v>23</v>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>282</v>
+      <c r="J39" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>152</v>
+      <c r="A40" s="16">
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
         <v>23</v>
@@ -2961,8 +2820,8 @@
       <c r="I40" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>282</v>
+      <c r="J40" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2971,13 +2830,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,12 +2845,12 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
@@ -3008,19 +2867,19 @@
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>285</v>
+        <v>234</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>286</v>
+      <c r="F1" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>45</v>
@@ -3028,17 +2887,17 @@
       <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>288</v>
+      <c r="I1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>50</v>
@@ -3047,16 +2906,16 @@
         <v>49</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>4</v>
@@ -3067,18 +2926,18 @@
         <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>266</v>
+        <v>216</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -3087,10 +2946,10 @@
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="14" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -3128,16 +2987,16 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -3146,10 +3005,10 @@
       <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3185,34 +3044,34 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="6">
+        <v>95</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
         <v>37256</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>37256</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>93</v>
+      <c r="I4" s="15">
+        <v>2001</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2001</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
@@ -3224,7 +3083,7 @@
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="P4" t="s">
         <v>29</v>
@@ -3235,8 +3094,8 @@
       <c r="R4" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>281</v>
+      <c r="S4" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -3244,38 +3103,38 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>37621</v>
+      </c>
+      <c r="H5" s="5">
+        <v>37621</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2002</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="6">
-        <v>37621</v>
-      </c>
-      <c r="H5" s="6">
-        <v>37621</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" t="s">
-        <v>105</v>
-      </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
@@ -3283,7 +3142,7 @@
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -3292,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>281</v>
+        <v>90</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -3303,38 +3162,38 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5">
+        <v>37986</v>
+      </c>
+      <c r="H6" s="5">
+        <v>37986</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2003</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2003</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="6">
-        <v>37986</v>
-      </c>
-      <c r="H6" s="6">
-        <v>37986</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s">
-        <v>106</v>
-      </c>
       <c r="M6" t="s">
         <v>23</v>
       </c>
@@ -3342,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -3351,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>280</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>281</v>
+        <v>230</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
@@ -3362,31 +3221,31 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="6">
+        <v>98</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
         <v>38352</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>38352</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>98</v>
+      <c r="I7" s="15">
+        <v>2004</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
@@ -3398,7 +3257,7 @@
         <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="P7" t="s">
         <v>34</v>
@@ -3409,8 +3268,8 @@
       <c r="R7" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>281</v>
+      <c r="S7" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
@@ -3418,31 +3277,31 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="6">
+        <v>99</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
         <v>38717</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>38717</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>99</v>
+      <c r="I8" s="15">
+        <v>2005</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
         <v>80</v>
@@ -3454,7 +3313,7 @@
         <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="P8" t="s">
         <v>34</v>
@@ -3463,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>281</v>
+        <v>90</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
@@ -3474,31 +3333,31 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="6">
+        <v>100</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
         <v>39082</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>39082</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>100</v>
+      <c r="I9" s="15">
+        <v>2006</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
         <v>0</v>
@@ -3507,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="P9" t="s">
         <v>29</v>
@@ -3516,10 +3375,10 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>280</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>281</v>
+        <v>230</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -3527,31 +3386,31 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="6">
+        <v>101</v>
+      </c>
+      <c r="E10" s="16">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5">
         <v>39447</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>39447</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>101</v>
+      <c r="I10" s="15">
+        <v>2007</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>0</v>
@@ -3560,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="P10" t="s">
         <v>33</v>
@@ -3571,8 +3430,8 @@
       <c r="R10" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>281</v>
+      <c r="S10" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
@@ -3580,28 +3439,28 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="6">
+        <v>102</v>
+      </c>
+      <c r="E11" s="16">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
         <v>39813</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>39813</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>102</v>
+      <c r="I11" s="15">
+        <v>2008</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
@@ -3613,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="P11" t="s">
         <v>31</v>
@@ -3622,10 +3481,10 @@
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>281</v>
+        <v>90</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
@@ -3633,29 +3492,29 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="D12"/>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="16">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
         <v>40178</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>40178</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>96</v>
+      <c r="I12" s="15">
+        <v>2009</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2009</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
         <v>80</v>
@@ -3667,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -3676,10 +3535,10 @@
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>280</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>281</v>
+        <v>230</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
@@ -3687,32 +3546,32 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D13"/>
-      <c r="E13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="E13" s="16">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
         <v>40543</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>40543</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>97</v>
+      <c r="I13" s="15">
+        <v>2010</v>
+      </c>
+      <c r="J13" s="15">
+        <v>2010</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
         <v>23</v>
@@ -3721,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="P13" t="s">
         <v>29</v>
@@ -3732,8 +3591,8 @@
       <c r="R13" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>281</v>
+      <c r="S13" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3743,19 +3602,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="W1" activeCellId="1" sqref="V1:V1048576 W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -3770,8 +3629,8 @@
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3779,10 +3638,10 @@
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3816,21 +3675,21 @@
         <v>64</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="R1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -3841,10 +3700,10 @@
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3881,7 +3740,7 @@
         <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>1</v>
@@ -3889,10 +3748,10 @@
       <c r="Q2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="14" t="s">
         <v>53</v>
       </c>
       <c r="T2" s="3" t="s">
@@ -3903,10 +3762,10 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3951,10 +3810,10 @@
       <c r="Q3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="3" t="s">
@@ -3965,14 +3824,14 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>129</v>
+      <c r="B4" s="16">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="16">
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3989,43 +3848,43 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>36892</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>36892</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>37256</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>37256</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="S4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>281</v>
+      <c r="S4" s="16">
+        <v>2001</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>130</v>
+      <c r="B5" s="16">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="16">
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -4042,50 +3901,49 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>37257</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>37257</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>37621</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>37621</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P5" s="6">
+        <v>259</v>
+      </c>
+      <c r="P5" s="5">
         <v>37257</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>37257</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>281</v>
+      <c r="S5" s="16">
+        <v>2002</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>131</v>
+      <c r="B6" s="16">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="16">
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -4102,50 +3960,49 @@
       <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>37622</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>37622</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>37986</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>37986</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P6" s="6">
+        <v>260</v>
+      </c>
+      <c r="P6" s="5">
         <v>37622</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>37622</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>281</v>
+      <c r="S6" s="16">
+        <v>2003</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>132</v>
+      <c r="B7" s="16">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="16">
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>66.510000000000005</v>
@@ -4162,52 +4019,52 @@
       <c r="I7">
         <v>1.89</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>37987</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>37987</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>38352</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>38352</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P7" s="6">
+        <v>259</v>
+      </c>
+      <c r="P7" s="5">
         <v>37987</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>37987</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>281</v>
+      <c r="R7" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S7" s="16">
+        <v>2004</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>133</v>
+      <c r="B8" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="16">
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>3.82</v>
@@ -4224,52 +4081,52 @@
       <c r="I8">
         <v>48.26</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>38353</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>38353</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>38717</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>38717</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P8" s="6">
+        <v>260</v>
+      </c>
+      <c r="P8" s="5">
         <v>38353</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>38353</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>281</v>
+      <c r="R8" s="16">
+        <v>2005</v>
+      </c>
+      <c r="S8" s="16">
+        <v>2005</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>134</v>
+      <c r="B9" s="16">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="16">
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>98.26</v>
@@ -4286,52 +4143,52 @@
       <c r="I9">
         <v>10.51</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>38718</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>38718</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>39082</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>39082</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P9" s="6">
+        <v>259</v>
+      </c>
+      <c r="P9" s="5">
         <v>38718</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>38718</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>281</v>
+      <c r="R9" s="16">
+        <v>2006</v>
+      </c>
+      <c r="S9" s="16">
+        <v>2006</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>135</v>
+      <c r="B10" s="16">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="16">
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>36.17</v>
@@ -4348,16 +4205,16 @@
       <c r="I10">
         <v>11.04</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>39083</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>39083</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>39447</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>39447</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -4366,25 +4223,25 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>281</v>
+      <c r="S10" s="16">
+        <v>2007</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>136</v>
+      <c r="B11" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="16">
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>94.87</v>
@@ -4401,50 +4258,49 @@
       <c r="I11">
         <v>84.71</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>39448</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>39448</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>39813</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>39813</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>85</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P11" s="6">
+        <v>259</v>
+      </c>
+      <c r="P11" s="5">
         <v>39448</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>39448</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>281</v>
+      <c r="S11" s="16">
+        <v>2008</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>137</v>
+      <c r="B12" s="16">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="16">
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>17.97</v>
@@ -4461,50 +4317,49 @@
       <c r="I12">
         <v>35.61</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>39814</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>39814</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>40178</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>40178</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P12" s="6">
+        <v>260</v>
+      </c>
+      <c r="P12" s="5">
         <v>39814</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>39814</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>281</v>
+      <c r="S12" s="16">
+        <v>2009</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>223</v>
+      <c r="B13" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="16">
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>1.72</v>
@@ -4521,50 +4376,49 @@
       <c r="I13">
         <v>85.86</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>40179</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>40179</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>40543</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>40543</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P13" s="6">
+        <v>259</v>
+      </c>
+      <c r="P13" s="5">
         <v>40179</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>40179</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>281</v>
+      <c r="S13" s="16">
+        <v>2010</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>138</v>
+      <c r="B14" s="16">
+        <v>2001</v>
+      </c>
+      <c r="C14" s="16">
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4581,43 +4435,43 @@
       <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>36892</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>36892</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>37256</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>37256</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="S14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>281</v>
+      <c r="S14" s="16">
+        <v>2001</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>139</v>
+      <c r="B15" s="16">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="16">
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -4634,50 +4488,49 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>37257</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>37257</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>37621</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>37621</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P15" s="6">
+        <v>259</v>
+      </c>
+      <c r="P15" s="5">
         <v>37257</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>37257</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>281</v>
+      <c r="S15" s="16">
+        <v>2002</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>140</v>
+      <c r="B16" s="16">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="16">
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -4694,50 +4547,49 @@
       <c r="I16">
         <v>100</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>37622</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>37622</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>37986</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>37986</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P16" s="6">
+        <v>260</v>
+      </c>
+      <c r="P16" s="5">
         <v>37622</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>37622</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>281</v>
+      <c r="S16" s="16">
+        <v>2003</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>141</v>
+      <c r="B17" s="16">
+        <v>2004</v>
+      </c>
+      <c r="C17" s="16">
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <v>66.510000000000005</v>
@@ -4754,52 +4606,52 @@
       <c r="I17">
         <v>1.89</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>37987</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>37987</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>38352</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>38352</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P17" s="6">
+        <v>259</v>
+      </c>
+      <c r="P17" s="5">
         <v>37987</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>37987</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>281</v>
+      <c r="R17" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S17" s="16">
+        <v>2004</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>142</v>
+      <c r="B18" s="16">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="16">
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>3.82</v>
@@ -4816,52 +4668,52 @@
       <c r="I18">
         <v>48.26</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>38353</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>38353</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>38717</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>38717</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" s="6">
+        <v>260</v>
+      </c>
+      <c r="P18" s="5">
         <v>38353</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>38353</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>281</v>
+      <c r="R18" s="16">
+        <v>2005</v>
+      </c>
+      <c r="S18" s="16">
+        <v>2005</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>143</v>
+      <c r="B19" s="16">
+        <v>2006</v>
+      </c>
+      <c r="C19" s="16">
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <v>98.26</v>
@@ -4878,52 +4730,52 @@
       <c r="I19">
         <v>10.51</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>38718</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>38718</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>39082</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>39082</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P19" s="6">
+        <v>259</v>
+      </c>
+      <c r="P19" s="5">
         <v>38718</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>38718</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>281</v>
+      <c r="R19" s="16">
+        <v>2006</v>
+      </c>
+      <c r="S19" s="16">
+        <v>2006</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>144</v>
+      <c r="B20" s="16">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="16">
+        <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <v>36.17</v>
@@ -4940,16 +4792,16 @@
       <c r="I20">
         <v>11.04</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>39083</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>39083</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>39447</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>39447</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -4958,25 +4810,25 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="S20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>281</v>
+      <c r="S20" s="16">
+        <v>2007</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>145</v>
+      <c r="B21" s="16">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="16">
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <v>94.87</v>
@@ -4993,50 +4845,49 @@
       <c r="I21">
         <v>84.71</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>39448</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>39448</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>39813</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>39813</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>85</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P21" s="6">
+        <v>259</v>
+      </c>
+      <c r="P21" s="5">
         <v>39448</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>39448</v>
       </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>281</v>
+      <c r="S21" s="16">
+        <v>2008</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>146</v>
+      <c r="B22" s="16">
+        <v>2009</v>
+      </c>
+      <c r="C22" s="16">
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E22">
         <v>17.97</v>
@@ -5053,50 +4904,49 @@
       <c r="I22">
         <v>35.61</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>39814</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>39814</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>40178</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>40178</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>86</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P22" s="6">
+        <v>260</v>
+      </c>
+      <c r="P22" s="5">
         <v>39814</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>39814</v>
       </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>281</v>
+      <c r="S22" s="16">
+        <v>2009</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>147</v>
+      <c r="B23" s="16">
+        <v>2010</v>
+      </c>
+      <c r="C23" s="16">
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>1.72</v>
@@ -5113,50 +4963,49 @@
       <c r="I23">
         <v>85.86</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>40179</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>40179</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>40543</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>40543</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P23" s="6">
+        <v>259</v>
+      </c>
+      <c r="P23" s="5">
         <v>40179</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>40179</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>281</v>
+      <c r="S23" s="16">
+        <v>2010</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>151</v>
+      <c r="B24" s="16">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="16">
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>17.97</v>
@@ -5173,50 +5022,49 @@
       <c r="I24">
         <v>35.61</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>40179</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>40179</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>40543</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>40543</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P24" s="6">
+        <v>260</v>
+      </c>
+      <c r="P24" s="5">
         <v>40179</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>40179</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>281</v>
+      <c r="S24" s="16">
+        <v>2010</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>152</v>
+      <c r="B25" s="16">
+        <v>2012</v>
+      </c>
+      <c r="C25" s="16">
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>1.72</v>
@@ -5233,36 +5081,35 @@
       <c r="I25">
         <v>85.86</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>40179</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>40179</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>40543</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>40543</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P25" s="6">
+        <v>259</v>
+      </c>
+      <c r="P25" s="5">
         <v>40179</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>40179</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>281</v>
+      <c r="S25" s="16">
+        <v>2010</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5271,28 +5118,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D15"/>
+      <selection pane="bottomLeft" activeCell="G1" activeCellId="1" sqref="F1:F1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5303,10 +5150,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -5317,10 +5164,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5331,171 +5178,171 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>93</v>
+      <c r="A4" s="16">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2001</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>94</v>
+      <c r="A5" s="16">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2002</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>95</v>
+      <c r="A6" s="16">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2003</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>98</v>
+      <c r="A7" s="16">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2004</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>99</v>
+      <c r="A8" s="16">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2005</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>100</v>
+      <c r="A9" s="16">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2006</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>101</v>
+      <c r="A10" s="16">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2007</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>102</v>
+      <c r="A11" s="16">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2008</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>96</v>
+      <c r="A12" s="16">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2009</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>97</v>
+      <c r="A13" s="16">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2010</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>149</v>
+      <c r="A14" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2011</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>150</v>
+      <c r="A15" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2012</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5577,7 +5424,7 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -5586,7 +5433,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -5603,7 +5450,7 @@
         <v>1E-8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -5620,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -5637,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5646,10 +5493,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C14"/>
@@ -5671,7 +5518,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -5710,13 +5557,13 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -5724,13 +5571,13 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5738,13 +5585,13 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5752,13 +5599,13 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -5766,13 +5613,13 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5780,13 +5627,13 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5794,13 +5641,13 @@
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -5808,13 +5655,13 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5822,13 +5669,13 @@
         <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5836,13 +5683,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -5850,13 +5697,13 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5865,7 +5712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5885,96 +5732,96 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>21</v>
